--- a/03ETF/QDII - ETF 比较.xlsx
+++ b/03ETF/QDII - ETF 比较.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xhf/Documents/GitHub/20160824_Robo-Advisor/QDII ETF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xhf/Documents/GitHub/02_Robo-Advisor/03ETF/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="10980" windowWidth="38400" windowHeight="10540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>代码</t>
   </si>
@@ -60,13 +60,103 @@
   </si>
   <si>
     <t>SYSIOP</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>博时标普500ETF</t>
+  </si>
+  <si>
+    <t>标普500指数(S&amp;P 500 Index (NTR，Net total Return)) (经估值汇率调整，以人民币计价)。</t>
+  </si>
+  <si>
+    <t>博时基金管理有限公司</t>
+  </si>
+  <si>
+    <t>http://www.bosera.com/column/index.jsp?classid=000200020003_FUND_OPEN_1111_513500</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>恒生ETF</t>
+  </si>
+  <si>
+    <t>南方香港</t>
+  </si>
+  <si>
+    <t>石油黄金</t>
+  </si>
+  <si>
+    <t>恒生H股</t>
+  </si>
+  <si>
+    <t>易基黄金</t>
+  </si>
+  <si>
+    <t>国投新兴</t>
+  </si>
+  <si>
+    <t>招商金砖</t>
+  </si>
+  <si>
+    <t>银华通胀</t>
+  </si>
+  <si>
+    <t>添富贵金</t>
+  </si>
+  <si>
+    <t>工银资源</t>
+  </si>
+  <si>
+    <t>信诚四国</t>
+  </si>
+  <si>
+    <t>信诚商品</t>
+  </si>
+  <si>
+    <t>H股ETF</t>
+  </si>
+  <si>
+    <t>德国30</t>
+  </si>
+  <si>
+    <t>纳指ETF</t>
+  </si>
+  <si>
+    <t>http://www.chinaamc.com/fund/000075/index.shtml</t>
+  </si>
+  <si>
+    <t>000075</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF联接(美元)</t>
+  </si>
+  <si>
+    <t>http://www.chinaamc.com/fund/513660/index.shtml</t>
+  </si>
+  <si>
+    <t>华夏基金</t>
+  </si>
+  <si>
+    <t>恒生通</t>
+  </si>
+  <si>
+    <t>http://www.chinaamc.com/fund/159920/index.shtml</t>
+  </si>
+  <si>
+    <t>香港恒生指数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,6 +166,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="MicrosoftYaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="MicrosoftYaHei"/>
       <family val="2"/>
     </font>
@@ -97,15 +194,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -382,19 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +524,14 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>162411</v>
       </c>
@@ -445,108 +556,297 @@
       <c r="H2" s="1">
         <v>2.8E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>41068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>513500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>41613</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>513660</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>41204</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>159920</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>10.96</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>41130</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>160125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>160416</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>160717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>161116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>161210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>161714</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>161815</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>164701</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>164815</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>165510</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>165513</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>510900</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>513030</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>513100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J19" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>